--- a/biology/Zoologie/Cigaritis_syama/Cigaritis_syama.xlsx
+++ b/biology/Zoologie/Cigaritis_syama/Cigaritis_syama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis syama est une espèce de lépidoptères (papillons) de la sous-famille des Aphnaeinae (famille des Lycaenidae).
-C'est un papillon très commun dans son aire de répartition[1].
+C'est un papillon très commun dans son aire de répartition.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis syama est un petit papillon « faux-cuivré » de 2,7 à 3,3 cm d'envergure. Son abdomen est blanc crème annelé de noir. Son aile antérieure a le dessus marron taché de bleu près de la bordure inférieure ; et a le dessous blanc crème avec des segments de lignes gris-bleu  bordés de noir. Son aile postérieure a deux fines queues ; le dessus est marron avec une large plage bleue et une tache rouge-orangé ornée d'un point noir près des queues ; le dessus est blanc crème avec des segments de lignes gris-bleu bordés de noir et, près des queues, une tache rouge-orangé ornée de deux points noirs.
 </t>
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-La chenille se nourrit de feuilles de Dioscorea batatus (famille des Dioscoreaceae), de Psidium guajava ou Goyavier (famille des Mytaceae) et de Gmelina arborea (famille des Verbenaceae).
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de feuilles de Dioscorea batatus (famille des Dioscoreaceae), de Psidium guajava ou Goyavier (famille des Mytaceae) et de Gmelina arborea (famille des Verbenaceae).
 </t>
         </is>
       </c>
@@ -575,7 +594,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cigaritis syama est présent en Inde, en Asie du Sud-Est et en Chine. Il vit dans les champs et les zones anthropisées.
 </t>
@@ -606,9 +627,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (27 février 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (27 février 2023) :
 Cigaritis syama syama
 Cigaritis syama terana</t>
         </is>
@@ -638,9 +661,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Cigaritis syama (Horsfield, 1829)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Cigaritis syama (Horsfield, 1829).
 </t>
         </is>
       </c>
